--- a/ProjectTrebuchetSpreadsheet.xlsx
+++ b/ProjectTrebuchetSpreadsheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stude\Documents\GitHub\HHolben.github.io\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{ACDD1DA7-DB41-4442-A08E-6006AF815501}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C52F40A-9FCC-4BA4-9201-53D09884B8FF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{156F6A5D-5D25-4120-BF11-49E0EB87F059}"/>
   </bookViews>
@@ -73,9 +73,6 @@
     <t>Length feet</t>
   </si>
   <si>
-    <t>TREBUCHET I WANT TO BUILD</t>
-  </si>
-  <si>
     <t>Obtained?</t>
   </si>
   <si>
@@ -230,6 +227,9 @@
   </si>
   <si>
     <t xml:space="preserve">* Using Phsstok's </t>
+  </si>
+  <si>
+    <t>TREBUCHET I WANT TO  (Based on Dimesions From 15 PROJECTS FOR THE EVIL GENIUS)</t>
   </si>
 </sst>
 </file>
@@ -637,8 +637,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{977FB37B-D9D3-47BA-ADC8-BB736EE8FC5B}">
   <dimension ref="D2:K72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C51" zoomScale="114" zoomScaleNormal="72" workbookViewId="0">
-      <selection activeCell="E43" sqref="E43"/>
+    <sheetView tabSelected="1" zoomScale="71" zoomScaleNormal="72" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -737,7 +737,7 @@
     </row>
     <row r="11" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -798,7 +798,7 @@
     </row>
     <row r="17" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E17">
         <v>3</v>
@@ -816,13 +816,13 @@
     </row>
     <row r="18" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E18">
         <v>7</v>
       </c>
       <c r="F18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G18">
         <f>E18/12</f>
@@ -834,14 +834,14 @@
     </row>
     <row r="19" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D19" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E19">
         <f>F9-(E17+E18)</f>
         <v>64</v>
       </c>
       <c r="F19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G19">
         <f>E19/12</f>
@@ -853,13 +853,13 @@
     </row>
     <row r="20" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D20" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E20">
         <v>22.5</v>
       </c>
       <c r="F20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G20">
         <f>E20/12</f>
@@ -871,14 +871,14 @@
     </row>
     <row r="21" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D21" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E21">
         <f>E20-E18</f>
         <v>15.5</v>
       </c>
       <c r="F21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G21">
         <f t="shared" ref="G21:G22" si="0">E21/12</f>
@@ -890,14 +890,14 @@
     </row>
     <row r="22" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D22" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E22">
         <f>F9-(E20+E17)</f>
         <v>48.5</v>
       </c>
       <c r="F22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G22">
         <f t="shared" si="0"/>
@@ -909,7 +909,7 @@
     </row>
     <row r="24" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D24" s="3" t="s">
-        <v>15</v>
+        <v>67</v>
       </c>
     </row>
     <row r="26" spans="4:11" x14ac:dyDescent="0.3">
@@ -926,7 +926,7 @@
         <v>14</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="28" spans="4:11" x14ac:dyDescent="0.3">
@@ -1080,7 +1080,7 @@
     </row>
     <row r="33" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D33" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E33">
         <v>1</v>
@@ -1186,7 +1186,7 @@
     </row>
     <row r="38" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D38" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E38">
         <f>SUMPRODUCT(E28:E35,F28:F35)-(F28*E28*J28+F29*E29*J29+F30*E30*J30+F31*E31*J31+F32*E32*J32+F33*E33*J33+F34*E34*J34+F35*E35*J35)</f>
@@ -1205,18 +1205,18 @@
     </row>
     <row r="40" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D40" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E40" s="4">
         <v>0.45</v>
       </c>
       <c r="F40" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="41" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D41" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E41" s="5">
         <f>E40*G38</f>
@@ -1225,18 +1225,18 @@
     </row>
     <row r="43" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D43" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E43">
         <v>3.75</v>
       </c>
       <c r="F43" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="44" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D44" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E44">
         <f>E17*2</f>
@@ -1255,14 +1255,14 @@
     </row>
     <row r="45" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D45" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E45">
         <f>E18*2</f>
         <v>14</v>
       </c>
       <c r="F45" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G45">
         <f>E45/12</f>
@@ -1274,14 +1274,14 @@
     </row>
     <row r="46" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D46" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E46">
         <f>F31-(E44+E45)</f>
         <v>128</v>
       </c>
       <c r="F46" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G46">
         <f>E46/12</f>
@@ -1293,14 +1293,14 @@
     </row>
     <row r="47" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D47" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E47">
         <f>E20*2</f>
         <v>45</v>
       </c>
       <c r="F47" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G47">
         <f>E47/12</f>
@@ -1312,14 +1312,14 @@
     </row>
     <row r="48" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D48" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E48">
         <f>E47-E45</f>
         <v>31</v>
       </c>
       <c r="F48" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G48">
         <f t="shared" ref="G48:G49" si="4">E48/12</f>
@@ -1331,14 +1331,14 @@
     </row>
     <row r="49" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D49" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E49">
         <f>F31-(E47+E44)</f>
         <v>97</v>
       </c>
       <c r="F49" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G49">
         <f t="shared" si="4"/>
@@ -1350,7 +1350,7 @@
     </row>
     <row r="50" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D50" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E50">
         <f>E49/E48</f>
@@ -1359,14 +1359,14 @@
     </row>
     <row r="52" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D52" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E52">
         <f>E46/(E43+1)</f>
         <v>26.94736842105263</v>
       </c>
       <c r="F52" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G52">
         <f t="shared" ref="G52:G54" si="5">E52/12</f>
@@ -1378,14 +1378,14 @@
     </row>
     <row r="53" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D53" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E53">
         <f>E52*E43</f>
         <v>101.05263157894737</v>
       </c>
       <c r="F53" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G53">
         <f t="shared" si="5"/>
@@ -1395,19 +1395,19 @@
         <v>12</v>
       </c>
       <c r="I53" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="54" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D54" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E54">
         <f>E52</f>
         <v>26.94736842105263</v>
       </c>
       <c r="F54" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G54">
         <f t="shared" si="5"/>
@@ -1417,99 +1417,99 @@
         <v>12</v>
       </c>
       <c r="I54" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="56" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D56" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="57" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D57" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E57">
         <v>28.5</v>
       </c>
       <c r="F57" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="58" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D58" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E58">
         <f>1.75/4.15</f>
         <v>0.42168674698795178</v>
       </c>
       <c r="F58" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="59" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D59" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E59">
         <f>E57*E58</f>
         <v>12.018072289156626</v>
       </c>
       <c r="F59" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="60" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D60" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E60">
         <f>E57/4.15</f>
         <v>6.8674698795180715</v>
       </c>
       <c r="F60" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="61" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D61" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E61">
         <f>0.7*E60</f>
         <v>4.80722891566265</v>
       </c>
       <c r="F61" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="62" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D62" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E62">
         <f>0.25*E60</f>
         <v>1.7168674698795179</v>
       </c>
       <c r="F62" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="64" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D64" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="66" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D66" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E66">
         <v>14</v>
       </c>
       <c r="F66" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G66">
         <f>E66/12</f>
@@ -1521,45 +1521,45 @@
     </row>
     <row r="67" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D67" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E67">
         <f>(E53-2*E66)/2</f>
         <v>36.526315789473685</v>
       </c>
       <c r="F67" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="69" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D69" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="71" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D71" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E71" s="7">
         <v>0.75</v>
       </c>
       <c r="F71" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G71" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="72" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D72" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E72" s="7">
         <f>PI()*E71</f>
         <v>2.3561944901923448</v>
       </c>
       <c r="F72" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -1584,132 +1584,132 @@
   <sheetData>
     <row r="4" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E4">
         <v>133</v>
       </c>
       <c r="F4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G4">
         <f>('Dimensions and Proportions'!E43)*20</f>
         <v>75</v>
       </c>
       <c r="H4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E5">
         <v>13.5</v>
       </c>
       <c r="F5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E8">
         <f>0.08/12</f>
         <v>6.6666666666666671E-3</v>
       </c>
       <c r="F8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H8">
         <f>E8*16</f>
         <v>0.10666666666666667</v>
       </c>
       <c r="I8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="9" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E9">
         <v>4.5</v>
       </c>
       <c r="F9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="11" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="12" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D12" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="15" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D15" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E15">
         <f>E5+4*E9</f>
         <v>31.5</v>
       </c>
       <c r="F15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="16" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E16">
         <f>E8</f>
         <v>6.6666666666666671E-3</v>
       </c>
       <c r="F16" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="20" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D20" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E20">
         <f>E15/G4</f>
         <v>0.42</v>
       </c>
       <c r="F20" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G20">
         <f>E20*16</f>
         <v>6.72</v>
       </c>
       <c r="H20" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="21" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D21" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="25" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D25" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E25">
         <f>E5/E16</f>

--- a/ProjectTrebuchetSpreadsheet.xlsx
+++ b/ProjectTrebuchetSpreadsheet.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stude\Documents\GitHub\HHolben.github.io\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C52F40A-9FCC-4BA4-9201-53D09884B8FF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{540029F3-4FA6-465D-A382-164B983E7ED7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{156F6A5D-5D25-4120-BF11-49E0EB87F059}"/>
   </bookViews>
